--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/47.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/47.xlsx
@@ -479,13 +479,13 @@
         <v>-11.49462264887761</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.45080911389077</v>
+        <v>-17.03606234791542</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9166106981406176</v>
+        <v>-2.617848195634746</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.164578409113761</v>
+        <v>-0.5320414179890878</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.69022459578752</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.19162565741379</v>
+        <v>-17.812822869924</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.091250912433686</v>
+        <v>-2.744507696535912</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.509400063437273</v>
+        <v>-1.189857291932494</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.819249852199929</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.13846983931547</v>
+        <v>-18.75703187712442</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.016439329356154</v>
+        <v>-2.804266027470213</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.644776663582148</v>
+        <v>-1.057340760804764</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.989326221410201</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.61972900827398</v>
+        <v>-19.22194709612683</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7811900969339405</v>
+        <v>-2.472038454835875</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.541295944237025</v>
+        <v>-1.034919775313093</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.196468621521118</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.54354596783249</v>
+        <v>-20.1147090840667</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9459740733833089</v>
+        <v>-2.767300246549469</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.120655571421397</v>
+        <v>-0.7136142440194421</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.473449615068353</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.25887611855829</v>
+        <v>-20.77148359954745</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.119176919657505</v>
+        <v>-2.985261950690271</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.048356937873459</v>
+        <v>-0.8657063586422992</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.829164150453689</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.79674998703567</v>
+        <v>-21.54494893092773</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.126925995541565</v>
+        <v>-3.09812956321987</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.847946768384881</v>
+        <v>-0.7624652006336562</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.278232311112706</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.36064803906564</v>
+        <v>-22.20188478363509</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9525400096055756</v>
+        <v>-2.939202616997065</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.976082749359855</v>
+        <v>-0.9836536493066224</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.823434058185161</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.09059143131664</v>
+        <v>-22.85558411379656</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9160386843371886</v>
+        <v>-3.048247026156737</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.984408728054211</v>
+        <v>-0.997812213193208</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.458803288895202</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.37535887885262</v>
+        <v>-24.33785766074217</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9416130792580206</v>
+        <v>-3.162644897835679</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.709079417337029</v>
+        <v>-0.6500131536877455</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.176886510868603</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.01800416448799</v>
+        <v>-25.03737187425349</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8073609506925362</v>
+        <v>-2.985467288978682</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.39225710534034</v>
+        <v>-0.4575769543991062</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.956981656075282</v>
       </c>
       <c r="E13" t="n">
-        <v>-25.02402488550681</v>
+        <v>-26.09784146474914</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4203618341281496</v>
+        <v>-2.791632833726104</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.035085819671001</v>
+        <v>-0.1127015210000589</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.787909543339739</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.85692587336818</v>
+        <v>-26.72406213181511</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1142415581631371</v>
+        <v>-2.589707072108784</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.325778925405247</v>
+        <v>0.7029706066622973</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.647571468088193</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.69550299820203</v>
+        <v>-27.73829882887379</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2955892204697423</v>
+        <v>-2.07536888268873</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.783104052184555</v>
+        <v>1.267646010784107</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.527218332240126</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.38379694095378</v>
+        <v>-28.30164442312779</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4706694453808335</v>
+        <v>-1.849340317217518</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.386297587845137</v>
+        <v>1.854292611765832</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.41269479645031</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.54210778137357</v>
+        <v>-29.65078297957701</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6103679275960612</v>
+        <v>-1.856116480735063</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.024515968700297</v>
+        <v>2.073344564437956</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.30296635083455</v>
       </c>
       <c r="E18" t="n">
-        <v>-29.195147095608</v>
+        <v>-30.18093955071497</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7791315556350983</v>
+        <v>-1.733597968650174</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.9556298619454658</v>
+        <v>2.285351458214856</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.194872171124433</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.98880158084521</v>
+        <v>-30.97124506624833</v>
       </c>
       <c r="F19" t="n">
-        <v>1.186444495731517</v>
+        <v>-1.397253852233893</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1801942607978197</v>
+        <v>3.223625211078839</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.096015368719351</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.78861865923816</v>
+        <v>-31.70943376858039</v>
       </c>
       <c r="F20" t="n">
-        <v>1.451115771478824</v>
+        <v>-1.214874340070498</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.188803801890457</v>
+        <v>3.031242790865735</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.01207787553049</v>
       </c>
       <c r="E21" t="n">
-        <v>-31.50343790874636</v>
+        <v>-32.23038189528451</v>
       </c>
       <c r="F21" t="n">
-        <v>1.901427526969759</v>
+        <v>-0.7583584348654476</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.326644461496257</v>
+        <v>2.915666668531866</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.955505342238113</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.96004914958532</v>
+        <v>-32.73997285903679</v>
       </c>
       <c r="F22" t="n">
-        <v>2.117951863091688</v>
+        <v>-0.5481311395881049</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.3745616177988904</v>
+        <v>2.724433164932488</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.933356596584378</v>
       </c>
       <c r="E23" t="n">
-        <v>-32.40335495823596</v>
+        <v>-33.2993363571977</v>
       </c>
       <c r="F23" t="n">
-        <v>2.410642037193286</v>
+        <v>-0.1857726176329697</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.4122069706741355</v>
+        <v>2.739447305020783</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.954500040165579</v>
       </c>
       <c r="E24" t="n">
-        <v>-32.87758862432671</v>
+        <v>-33.89725945251796</v>
       </c>
       <c r="F24" t="n">
-        <v>2.885829059623084</v>
+        <v>0.3755782618193377</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.4595032231046707</v>
+        <v>2.563829289354332</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.018637010105243</v>
       </c>
       <c r="E25" t="n">
-        <v>-32.94754297908197</v>
+        <v>-33.94133873843007</v>
       </c>
       <c r="F25" t="n">
-        <v>3.050779262305928</v>
+        <v>0.5608716220754143</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.3605203900771107</v>
+        <v>2.722008217526498</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.124123928442836</v>
       </c>
       <c r="E26" t="n">
-        <v>-32.8713404735508</v>
+        <v>-34.03398786306154</v>
       </c>
       <c r="F26" t="n">
-        <v>2.948295900361656</v>
+        <v>0.4817968250099319</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.6183470562107374</v>
+        <v>2.309380926965743</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.260025611997759</v>
       </c>
       <c r="E27" t="n">
-        <v>-32.92568667388342</v>
+        <v>-34.14025776082423</v>
       </c>
       <c r="F27" t="n">
-        <v>3.168139872146221</v>
+        <v>0.7598004224833166</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3092738200981082</v>
+        <v>2.656774198901252</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.414724400861074</v>
       </c>
       <c r="E28" t="n">
-        <v>-32.61412004426867</v>
+        <v>-33.52055169540843</v>
       </c>
       <c r="F28" t="n">
-        <v>3.303594696400966</v>
+        <v>0.846003391560761</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.6779489389252975</v>
+        <v>2.356760292513016</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.570182913237609</v>
       </c>
       <c r="E29" t="n">
-        <v>-32.83237508882148</v>
+        <v>-34.08451330452767</v>
       </c>
       <c r="F29" t="n">
-        <v>3.037627833833926</v>
+        <v>0.7937056851053718</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.8168847360692865</v>
+        <v>1.977754702176035</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.71021696229393</v>
       </c>
       <c r="E30" t="n">
-        <v>-32.80510665302126</v>
+        <v>-33.65151352235248</v>
       </c>
       <c r="F30" t="n">
-        <v>2.970423545441313</v>
+        <v>0.8250344411085627</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.212855180234462</v>
+        <v>1.484913475949807</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.818604797995924</v>
       </c>
       <c r="E31" t="n">
-        <v>-32.33699157902446</v>
+        <v>-33.12351544774626</v>
       </c>
       <c r="F31" t="n">
-        <v>2.874114999169956</v>
+        <v>0.7181167499359997</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8645232189805058</v>
+        <v>2.211859906991391</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.883733617839517</v>
       </c>
       <c r="E32" t="n">
-        <v>-32.18360876658873</v>
+        <v>-33.02702111921397</v>
       </c>
       <c r="F32" t="n">
-        <v>2.567843163992069</v>
+        <v>0.5001354897677299</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.274637560011666</v>
+        <v>1.813801856894043</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.898312511611414</v>
       </c>
       <c r="E33" t="n">
-        <v>-31.79603763622092</v>
+        <v>-32.63087467080158</v>
       </c>
       <c r="F33" t="n">
-        <v>2.764239458842909</v>
+        <v>0.7571701367889163</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.116531966942504</v>
+        <v>2.031519110691499</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.859960682984857</v>
       </c>
       <c r="E34" t="n">
-        <v>-31.47961377828388</v>
+        <v>-32.15272735471387</v>
       </c>
       <c r="F34" t="n">
-        <v>2.351563278213485</v>
+        <v>0.2657858346090288</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.16720163411121</v>
+        <v>1.992895956442871</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.772354341138243</v>
       </c>
       <c r="E35" t="n">
-        <v>-30.56385145753861</v>
+        <v>-31.18863720108914</v>
       </c>
       <c r="F35" t="n">
-        <v>2.362656434794515</v>
+        <v>0.4919855153205827</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.212263610403565</v>
+        <v>1.978292492931396</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.640733334898515</v>
       </c>
       <c r="E36" t="n">
-        <v>-30.55904067478157</v>
+        <v>-31.11660746291888</v>
       </c>
       <c r="F36" t="n">
-        <v>2.470683930525868</v>
+        <v>0.4705961102778298</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.8891540355760232</v>
+        <v>2.393530513159083</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.475626472683217</v>
       </c>
       <c r="E37" t="n">
-        <v>-30.00042763917473</v>
+        <v>-30.46389815664797</v>
       </c>
       <c r="F37" t="n">
-        <v>2.356618511313875</v>
+        <v>0.3065894859203009</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.6157021034957364</v>
+        <v>2.623538730219964</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.286690061821401</v>
       </c>
       <c r="E38" t="n">
-        <v>-29.18975941004066</v>
+        <v>-29.45367777873047</v>
       </c>
       <c r="F38" t="n">
-        <v>2.041595353844211</v>
+        <v>-0.03689746952854261</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.3370971581777212</v>
+        <v>2.94673630717111</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.088259171753812</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.88092817976795</v>
+        <v>-29.11731410628672</v>
       </c>
       <c r="F39" t="n">
-        <v>1.896949196679665</v>
+        <v>-0.08501996411958644</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.3854005460228409</v>
+        <v>3.014752170703631</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.890574901135542</v>
       </c>
       <c r="E40" t="n">
-        <v>-28.03724204275817</v>
+        <v>-28.03421819201098</v>
       </c>
       <c r="F40" t="n">
-        <v>2.047814170578927</v>
+        <v>0.1302038961757434</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.03571432986674919</v>
+        <v>3.531041073863583</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.706785002730745</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.83561451055973</v>
+        <v>-27.86670126072301</v>
       </c>
       <c r="F41" t="n">
-        <v>1.975652429223262</v>
+        <v>0.2550397975155497</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.07599485744326144</v>
+        <v>3.518046093611324</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.543684072876188</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.00374754765072</v>
+        <v>-26.7120498419431</v>
       </c>
       <c r="F42" t="n">
-        <v>1.542838429309015</v>
+        <v>-0.2377280936076749</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.03215513286763511</v>
+        <v>3.480527854914618</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.409272701031652</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.64458643618654</v>
+        <v>-26.3077118625252</v>
       </c>
       <c r="F43" t="n">
-        <v>1.648436088627511</v>
+        <v>-0.1105992480472855</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0374154348485646</v>
+        <v>3.498182058711048</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.304512169140502</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.86306646599302</v>
+        <v>-25.38048726518045</v>
       </c>
       <c r="F44" t="n">
-        <v>1.650675253772558</v>
+        <v>-0.09036364862512447</v>
       </c>
       <c r="G44" t="n">
-        <v>0.162129111016698</v>
+        <v>3.586384631597061</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.230725709653933</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.41960420912264</v>
+        <v>-24.98048339035007</v>
       </c>
       <c r="F45" t="n">
-        <v>1.727031763020036</v>
+        <v>-0.05737263028718241</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1217068022410452</v>
+        <v>3.612252366929908</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.183135917668385</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.85632706096476</v>
+        <v>-24.39307899330397</v>
       </c>
       <c r="F46" t="n">
-        <v>1.771027935815404</v>
+        <v>0.06209514151275126</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01731210801968132</v>
+        <v>3.351057175064977</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.157290128863363</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.62962381254592</v>
+        <v>-24.12088842499535</v>
       </c>
       <c r="F47" t="n">
-        <v>1.827407963004667</v>
+        <v>0.09684620232278271</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.007602540381988235</v>
+        <v>3.38637536067157</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.145128693841965</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.25640680633936</v>
+        <v>-23.66600544808385</v>
       </c>
       <c r="F48" t="n">
-        <v>1.554655158906349</v>
+        <v>-0.1217901847656538</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.06574749905020771</v>
+        <v>3.564873001382635</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.140629328652169</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.10885911453709</v>
+        <v>-22.32971275717745</v>
       </c>
       <c r="F49" t="n">
-        <v>1.803422495315582</v>
+        <v>0.06381118292303842</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.2560423133311382</v>
+        <v>3.27753628980031</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.138321135985691</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.98002400558014</v>
+        <v>-22.31413638129946</v>
       </c>
       <c r="F50" t="n">
-        <v>1.812535604115512</v>
+        <v>0.1091371655862069</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.4258717448671628</v>
+        <v>3.030328546581622</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.137211327067836</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.52967313803427</v>
+        <v>-21.82898556287489</v>
       </c>
       <c r="F51" t="n">
-        <v>1.723291672766846</v>
+        <v>-0.09310149247059685</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.4541155375373305</v>
+        <v>2.95329735438651</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.137830304330048</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.84465971889022</v>
+        <v>-21.14406014585444</v>
       </c>
       <c r="F52" t="n">
-        <v>1.98139212328502</v>
+        <v>0.3284335686016769</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.5334836750148277</v>
+        <v>2.931976395439894</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.144598821079028</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.39646001436579</v>
+        <v>-20.50272022505254</v>
       </c>
       <c r="F53" t="n">
-        <v>2.008203436943182</v>
+        <v>0.3198729175777088</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.6647779544258287</v>
+        <v>2.749142205637876</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.162345177708747</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.77921311940404</v>
+        <v>-19.71611813222086</v>
       </c>
       <c r="F54" t="n">
-        <v>2.278413957470704</v>
+        <v>0.7241106723548375</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.5053767745369336</v>
+        <v>3.040634573057079</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.198800227700543</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.46160856630865</v>
+        <v>-19.28810024804305</v>
       </c>
       <c r="F55" t="n">
-        <v>2.074293031770138</v>
+        <v>0.4449777142951954</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.7944881956119492</v>
+        <v>2.415281704709988</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.260579099525379</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.81331158873513</v>
+        <v>-18.57431013448034</v>
       </c>
       <c r="F56" t="n">
-        <v>2.222860172441949</v>
+        <v>0.6911783220992984</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.047196071555916</v>
+        <v>2.294992579756412</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.35444945318212</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.41806960659312</v>
+        <v>-18.01308636920657</v>
       </c>
       <c r="F57" t="n">
-        <v>2.058736211919614</v>
+        <v>0.6581628587270217</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.104245892685946</v>
+        <v>2.239526796851262</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.484686618324852</v>
       </c>
       <c r="E58" t="n">
-        <v>-18.7244808694045</v>
+        <v>-17.17908046579328</v>
       </c>
       <c r="F58" t="n">
-        <v>2.015302274913942</v>
+        <v>0.3782378815549395</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.533686477862022</v>
+        <v>1.751775026773493</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.652011411715877</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.1763547535272</v>
+        <v>-16.42698987243516</v>
       </c>
       <c r="F59" t="n">
-        <v>2.128585453027228</v>
+        <v>0.4917752880253053</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.248266256971527</v>
+        <v>2.119271894945756</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.854071183354091</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.72702079940964</v>
+        <v>-15.80324059834041</v>
       </c>
       <c r="F60" t="n">
-        <v>1.965126397438794</v>
+        <v>0.3739208884914536</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.810252707316533</v>
+        <v>1.547678546107261</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.082590848053323</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.15971510959344</v>
+        <v>-15.24474000989152</v>
       </c>
       <c r="F61" t="n">
-        <v>1.979842308108208</v>
+        <v>0.4524138937397731</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.971497042794255</v>
+        <v>1.272055894978064</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.32883784355371</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.09408997041884</v>
+        <v>-15.2062781928695</v>
       </c>
       <c r="F62" t="n">
-        <v>1.783710019628181</v>
+        <v>0.2341441821663552</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.214334013873921</v>
+        <v>0.9040261250573076</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.579529649739389</v>
       </c>
       <c r="E63" t="n">
-        <v>-16.24779310374212</v>
+        <v>-14.28375682013072</v>
       </c>
       <c r="F63" t="n">
-        <v>1.852249006895462</v>
+        <v>0.2297489649929987</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.080668566132466</v>
+        <v>0.9650947098319422</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.826265726709144</v>
       </c>
       <c r="E64" t="n">
-        <v>-16.16045588507156</v>
+        <v>-14.09465981253218</v>
       </c>
       <c r="F64" t="n">
-        <v>1.484194791940371</v>
+        <v>-0.233635994860067</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.059631169584131</v>
+        <v>1.108572394355295</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.057992377257128</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.84443048119417</v>
+        <v>-13.58433549774986</v>
       </c>
       <c r="F65" t="n">
-        <v>1.830121361815805</v>
+        <v>0.06684236718052568</v>
       </c>
       <c r="G65" t="n">
-        <v>-2.127593254041116</v>
+        <v>0.9996599883810309</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.271072094317774</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.69377084558332</v>
+        <v>-13.50350554721916</v>
       </c>
       <c r="F66" t="n">
-        <v>1.876879823490979</v>
+        <v>0.207943994366558</v>
       </c>
       <c r="G66" t="n">
-        <v>-2.293164360596057</v>
+        <v>0.769436655018006</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.459085162372935</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.2930042856817</v>
+        <v>-12.98058715074767</v>
       </c>
       <c r="F67" t="n">
-        <v>1.412345947024189</v>
+        <v>-0.3469533960214217</v>
       </c>
       <c r="G67" t="n">
-        <v>-2.394205465514589</v>
+        <v>0.5588084611775762</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.625016560745884</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.10593132692607</v>
+        <v>-12.88780846743422</v>
       </c>
       <c r="F68" t="n">
-        <v>1.411984160516037</v>
+        <v>-0.4552986771991239</v>
       </c>
       <c r="G68" t="n">
-        <v>-2.363981625063321</v>
+        <v>0.784954362813594</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.768356586946301</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.07384966386537</v>
+        <v>-12.7651481741502</v>
       </c>
       <c r="F69" t="n">
-        <v>1.530757693340869</v>
+        <v>-0.2835038649025995</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.2736523341902</v>
+        <v>0.5773377972031838</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.897800347049359</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.85148785354435</v>
+        <v>-12.80326776069153</v>
       </c>
       <c r="F70" t="n">
-        <v>1.25490036988206</v>
+        <v>-0.5777389651741418</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.074479083438951</v>
+        <v>0.8431482115504826</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.016943134270776</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.81683457287165</v>
+        <v>-12.564356662126</v>
       </c>
       <c r="F71" t="n">
-        <v>1.334860077190454</v>
+        <v>-0.4917413343851079</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.055196840355839</v>
+        <v>0.7904984966006755</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.136286981280973</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.84810954979931</v>
+        <v>-12.60927196821235</v>
       </c>
       <c r="F72" t="n">
-        <v>1.143655907632277</v>
+        <v>-0.8565443597737006</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.952664588342899</v>
+        <v>0.7642494187322092</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.259016908081252</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.69970863536097</v>
+        <v>-12.53417193372967</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9896521913244559</v>
+        <v>-0.9639705076604227</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.76338179848342</v>
+        <v>1.120345122890826</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.389863922014956</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.00421065005304</v>
+        <v>-13.15776964861153</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8641953861125515</v>
+        <v>-0.9908551564215881</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.23144807334934</v>
+        <v>1.671487756005015</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.52627965181884</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.11081055577925</v>
+        <v>-13.19595279224214</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7996556064624073</v>
+        <v>-1.250011632423015</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.025919113671102</v>
+        <v>1.830233808973744</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.663194844954119</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.10672823504538</v>
+        <v>-13.20336452665238</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8696564067828955</v>
+        <v>-0.9853648017100426</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.8199208093336406</v>
+        <v>2.120601704813556</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.791706423289353</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.31907247029609</v>
+        <v>-13.65250780950213</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6881813608898795</v>
+        <v>-1.234567259730431</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4297340602920256</v>
+        <v>2.502609145366823</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.899135313765267</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.80187167641768</v>
+        <v>-14.26345277461242</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5227715915615461</v>
+        <v>-1.457144186353601</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.0877871420062603</v>
+        <v>2.937613420357447</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.975349852489892</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.29669783943188</v>
+        <v>-14.93102710626219</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5328673907417254</v>
+        <v>-1.583525013863353</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2740775902553165</v>
+        <v>3.254064167832251</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.008193723161974</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.56410695902465</v>
+        <v>-15.43172496652355</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3904115086535577</v>
+        <v>-1.604943752947307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5095712730208757</v>
+        <v>3.623179297277463</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.994221080816458</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.44893408881952</v>
+        <v>-16.32686790080761</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2446213238821539</v>
+        <v>-1.897497034856631</v>
       </c>
       <c r="G81" t="n">
-        <v>0.938146503981507</v>
+        <v>4.179166936196764</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.929935932341441</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.03404554164504</v>
+        <v>-17.0475172910046</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01172370376292656</v>
+        <v>-2.110716402336525</v>
       </c>
       <c r="G82" t="n">
-        <v>1.082142423232753</v>
+        <v>4.251446013717235</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.82104860039045</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.80441124267169</v>
+        <v>-17.92464912399095</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.05173560536962947</v>
+        <v>-2.064246392066499</v>
       </c>
       <c r="G83" t="n">
-        <v>1.484414797249382</v>
+        <v>4.786254474889061</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.670864930103091</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.88037898493547</v>
+        <v>-19.05322746914959</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1727727483738428</v>
+        <v>-2.133416061219612</v>
       </c>
       <c r="G84" t="n">
-        <v>1.916094547570504</v>
+        <v>5.10312567695442</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.490308859210158</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.55320899896717</v>
+        <v>-19.88349817131656</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.122523535795691</v>
+        <v>-2.306086005745314</v>
       </c>
       <c r="G85" t="n">
-        <v>1.971853670887669</v>
+        <v>5.213715012284036</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.286855310624284</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.67000483757655</v>
+        <v>-21.24177672610347</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4668856234737123</v>
+        <v>-2.652095688737485</v>
       </c>
       <c r="G86" t="n">
-        <v>2.532862319859293</v>
+        <v>5.809621392271698</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.072831864435115</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.40918356379915</v>
+        <v>-22.07518617067899</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.445745557781172</v>
+        <v>-2.479831531781737</v>
       </c>
       <c r="G87" t="n">
-        <v>2.664009929064286</v>
+        <v>5.988666601751857</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.856438387334665</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.37602378378652</v>
+        <v>-22.86422787793726</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6153647620219193</v>
+        <v>-2.620253587013268</v>
       </c>
       <c r="G88" t="n">
-        <v>3.011725875453011</v>
+        <v>6.431341728516672</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.646371656403205</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.62419212591677</v>
+        <v>-24.20640204410456</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.006441310313313</v>
+        <v>-2.999674742933936</v>
       </c>
       <c r="G89" t="n">
-        <v>3.02318570754906</v>
+        <v>6.308119199442947</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.447076407387853</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.11937753999791</v>
+        <v>-25.77740128767094</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.228074658611168</v>
+        <v>-3.332273880090161</v>
       </c>
       <c r="G90" t="n">
-        <v>2.866752154828382</v>
+        <v>6.130477134933592</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.261335393305206</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.61449695248633</v>
+        <v>-27.0072749661052</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.464159911207624</v>
+        <v>-3.500724611689715</v>
       </c>
       <c r="G91" t="n">
-        <v>2.556974901726917</v>
+        <v>5.867062333951082</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.091592805222947</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.05526283113183</v>
+        <v>-28.58804244539167</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.640965955542736</v>
+        <v>-3.571463652047107</v>
       </c>
       <c r="G92" t="n">
-        <v>2.442865481453122</v>
+        <v>5.488863429747142</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.937860682633115</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.79558304952008</v>
+        <v>-30.21401123766621</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.982800426670563</v>
+        <v>-4.027226650194653</v>
       </c>
       <c r="G93" t="n">
-        <v>2.2074549118043</v>
+        <v>5.412057131867908</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.803007779211391</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.71830722510606</v>
+        <v>-32.11557090252531</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.254433648196357</v>
+        <v>-4.280966106587538</v>
       </c>
       <c r="G94" t="n">
-        <v>2.035268978958423</v>
+        <v>5.008220275653867</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.685650493238342</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.88537663039014</v>
+        <v>-34.20126523301303</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.687061865849661</v>
+        <v>-4.450746648054894</v>
       </c>
       <c r="G95" t="n">
-        <v>1.738814269569301</v>
+        <v>4.607458604759114</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.591367606006995</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.80753857018642</v>
+        <v>-36.12696436927752</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.810900409788617</v>
+        <v>-4.398033376015817</v>
       </c>
       <c r="G96" t="n">
-        <v>1.171361909547084</v>
+        <v>3.822181432788369</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.516717514951717</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.69561679861</v>
+        <v>-38.08003461048644</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.1709317644751</v>
+        <v>-4.581082682119979</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7055275572536938</v>
+        <v>3.194036941520269</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.473028678125386</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.92385256880606</v>
+        <v>-40.22315521563294</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.428528647285982</v>
+        <v>-4.873059061219007</v>
       </c>
       <c r="G98" t="n">
-        <v>0.2762140862561583</v>
+        <v>2.50689191538224</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.454159987445476</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.05204948049131</v>
+        <v>-42.2773692309046</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.416961257038861</v>
+        <v>-4.649822118668804</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09936919927398181</v>
+        <v>2.100933230187958</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.482592055639911</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.52990816329831</v>
+        <v>-44.83942394547018</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.916876876201515</v>
+        <v>-5.058987992367783</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.5141867649111144</v>
+        <v>1.511558563374494</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.54125783657293</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.6000016728737</v>
+        <v>-46.88263525078784</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.843551551211525</v>
+        <v>-4.952779207190922</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.095044781762412</v>
+        <v>0.8816491406274378</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.675744762667232</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.95542617896427</v>
+        <v>-49.16844885485555</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.054111298955818</v>
+        <v>-4.802799143534572</v>
       </c>
       <c r="G102" t="n">
-        <v>-1.606405566000515</v>
+        <v>0.3561737935645523</v>
       </c>
     </row>
   </sheetData>
